--- a/7 - Motion In Two Dimensions/7-08 - Simple Harmonic Motion in Pendulums.xlsx
+++ b/7 - Motion In Two Dimensions/7-08 - Simple Harmonic Motion in Pendulums.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Public\K12-Physics-S1_SY2223\7 - Motion In Two Dimensions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2939DED1-A415-47FD-B7B1-0E4F65D53299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5702EF-6A23-4D37-AC3E-547D2E5F666A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pendulum Period Frequency" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Objective:</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>Length</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>It is important to note that the displacement angle is less than 15°. This condition meets the assumption of the pendulum equation (otherwise, you could not use the equation).</t>
   </si>
 </sst>
 </file>
@@ -174,10 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G11"/>
+  <dimension ref="B2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -534,7 +539,7 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>-9.8000000000000007</v>
       </c>
       <c r="E7" t="s">
@@ -580,6 +585,14 @@
       </c>
       <c r="F11" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/7 - Motion In Two Dimensions/7-08 - Simple Harmonic Motion in Pendulums.xlsx
+++ b/7 - Motion In Two Dimensions/7-08 - Simple Harmonic Motion in Pendulums.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Public\K12-Physics-S1_SY2223\7 - Motion In Two Dimensions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5702EF-6A23-4D37-AC3E-547D2E5F666A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3BB305-8151-4C52-A20E-1C0B6D2C5FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>Objective:</t>
   </si>
@@ -130,16 +130,33 @@
   </si>
   <si>
     <t>It is important to note that the displacement angle is less than 15°. This condition meets the assumption of the pendulum equation (otherwise, you could not use the equation).</t>
+  </si>
+  <si>
+    <t>Round (Length)</t>
+  </si>
+  <si>
+    <t>Round(Period)</t>
+  </si>
+  <si>
+    <t>Round(Frequency)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,9 +197,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G15"/>
+  <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -571,27 +589,57 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2">
+        <f>ROUND(D10, 1)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <f>1/D10</f>
         <v>0.9096462681059555</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2">
+        <f>ROUND(D12, 2)</f>
+        <v>0.91</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -602,7 +650,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD7333D-F687-4318-BB97-DBE34F38E7B0}">
-  <dimension ref="B2:G11"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -692,11 +740,30 @@
         <f>-D6*D10*D10/4/PI()/PI()</f>
         <v>0.24823689992372758</v>
       </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
       <c r="F11" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <f>ROUND(D11, 2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>